--- a/Translator/excel/Missing/Missing_Portuguese.xlsx
+++ b/Translator/excel/Missing/Missing_Portuguese.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>English</t>
   </si>
@@ -206,99 +206,6 @@
   </si>
   <si>
     <t>&lt;Settings&gt;&lt;samplerRecordStemsPads&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Actions&gt;&lt;dualdeckmode_decks&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;SkinFPS&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ContextMenu&gt;&lt;LoadTagS&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Config&gt;&lt;Connectdevice&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Config&gt;&lt;deck&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Config&gt;&lt;description&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Config&gt;&lt;Reconnectdevice&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Config&gt;&lt;Rescandevices&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ContextMenu&gt;&lt;deckI&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ContextMenu&gt;&lt;delete&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ContextMenu&gt;&lt;deleteFromTag&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ContextMenu&gt;&lt;deleteLyrics&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ContextMenu&gt;&lt;detachImage&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ContextMenu&gt;&lt;ResetTodefault&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ContextMenu&gt;&lt;SamplerOutputAlldecks&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ContextMenu&gt;&lt;SamplerOutputdeckI&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ContextMenu&gt;&lt;SamplerOutputTriggerdeck&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Messages&gt;&lt;deletePOI&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Messages&gt;&lt;deleteSample&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Messages&gt;&lt;deleteSampleFile&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;audioAutodetect&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;automixDualdeck&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;disableBuiltIndefinitions&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;filterdefaultResonance&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;historydelay&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;loopdefault&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;loopRolldefault&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;samplerdefaultLoopMode&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;tooltipdelay&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;videodelay&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;autoMixBeatMatchOnfade&gt;</t>
   </si>
   <si>
     <t>add or remove a hash tag from user1, user2 or comment of the currently browsed file: "browsed_song_hashtag 'user 1' '#high_energy'"</t>
@@ -868,7 +775,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -890,7 +797,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -898,7 +805,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -906,7 +813,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -914,7 +821,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -922,7 +829,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -930,7 +837,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -938,7 +845,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -946,7 +853,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -954,7 +861,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -962,7 +869,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -970,7 +877,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -978,7 +885,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -986,7 +893,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -994,7 +901,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1002,7 +909,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1010,7 +917,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1018,7 +925,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1026,7 +933,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1034,7 +941,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1042,7 +949,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1050,7 +957,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1058,7 +965,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1066,7 +973,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1074,7 +981,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1082,7 +989,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1090,7 +997,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1098,7 +1005,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1106,7 +1013,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1114,7 +1021,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1122,7 +1029,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1130,7 +1037,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1138,7 +1045,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1146,7 +1053,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1154,7 +1061,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1162,7 +1069,7 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1170,7 +1077,7 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1178,7 +1085,7 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1186,7 +1093,7 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1194,7 +1101,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1202,7 +1109,7 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1210,7 +1117,7 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1218,7 +1125,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1226,7 +1133,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1234,7 +1141,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1242,7 +1149,7 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1250,7 +1157,7 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1258,7 +1165,7 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1266,7 +1173,7 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1274,7 +1181,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1282,7 +1189,7 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1290,7 +1197,7 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1298,7 +1205,7 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1306,7 +1213,7 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1314,7 +1221,7 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1322,7 +1229,7 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1330,7 +1237,7 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1338,7 +1245,7 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1346,7 +1253,7 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1354,7 +1261,7 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1362,7 +1269,7 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1370,162 +1277,7 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
